--- a/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3608985006954943</v>
+        <v>0.2816984442337832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3608985006954943</v>
+        <v>0.2816984442337832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3608985006954943</v>
+        <v>0.2816984442337832</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9975437774725495</v>
+        <v>0.9862607619948425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9975749240046703</v>
+        <v>0.9864732833521422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9977272561625994</v>
+        <v>0.9867543451614238</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989091709795594</v>
+        <v>0.9815700986907687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989112047882636</v>
+        <v>0.9815545407247035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9989104440202249</v>
+        <v>0.9814932405683502</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9547765921069529</v>
+        <v>0.9288262790630166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9502713871284623</v>
+        <v>0.9288899563548688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9411423127547301</v>
+        <v>0.9405803839465376</v>
       </c>
     </row>
   </sheetData>
